--- a/Auswertung/pareto_land_kabel_1.xlsx
+++ b/Auswertung/pareto_land_kabel_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrissi\Git\Flexigrid\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35FDD09-FBEE-4D93-B8CD-4B7535B7DDC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2111421B-7BA0-4E16-9C07-5845CEE0A663}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07527236-B001-4B25-B5FC-FA063D13EE2D}"/>
   </bookViews>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>emission</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>min</t>
   </si>
@@ -66,6 +60,58 @@
   <si>
     <t>cost tsd €</t>
   </si>
+  <si>
+    <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-äquivalente Emissionen in t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jährliche Kosten in 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> €</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -74,8 +120,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,14 +161,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -265,6 +362,7 @@
         <c:axId val="479003896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="19"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -628,37 +726,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Heuristica" panose="02020603050705020204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -693,72 +761,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$10</c:f>
+              <c:f>'PV vergleich'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20.7950131516337</c:v>
+                  <c:v>-2.23644405578252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.650150817336399</c:v>
+                  <c:v>-2.6078773547670102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.505288483039202</c:v>
+                  <c:v>-2.9793106537515102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.360426148742</c:v>
+                  <c:v>-3.3507439527360101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.215563814444799</c:v>
+                  <c:v>-3.7221772517205101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.070701480147601</c:v>
+                  <c:v>-4.0936105507049998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.9258391458504</c:v>
+                  <c:v>-4.4650438496894997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.780976811553199</c:v>
+                  <c:v>-4.8364771486739997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.636114477256001</c:v>
+                  <c:v>-5.2079104476584899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$10</c:f>
+              <c:f>'PV vergleich'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>14.4372851107962</c:v>
+                  <c:v>5.4132575024365499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4372851107962</c:v>
+                  <c:v>5.4132575024365499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4372851107962</c:v>
+                  <c:v>5.4132575024365499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.4372851107962</c:v>
+                  <c:v>5.4311714650730298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.45173387152</c:v>
+                  <c:v>5.4546233883142801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.4718218661748</c:v>
+                  <c:v>5.48005178987016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.4921183417585</c:v>
+                  <c:v>5.5069305948327401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.5130747341302</c:v>
+                  <c:v>5.53528337844382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.043228614947701</c:v>
+                  <c:v>16.2661433211921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,7 +834,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E78-4476-82B9-26EECDCEBD8F}"/>
+              <c16:uniqueId val="{00000000-190D-42A4-B93F-862BDADAFC54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,15 +846,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627353432"/>
-        <c:axId val="451000432"/>
+        <c:axId val="540362800"/>
+        <c:axId val="540363128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627353432"/>
+        <c:axId val="540362800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="21000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -804,6 +870,106 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Heuristica" panose="02020603050705020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>CO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-äquivalente Emissionen in t</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Heuristica" panose="02020603050705020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -841,12 +1007,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451000432"/>
+        <c:crossAx val="540363128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451000432"/>
+        <c:axId val="540363128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,6 +1032,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Heuristica" panose="02020603050705020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kosten i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>n 10 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>€</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Heuristica" panose="02020603050705020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -903,8 +1143,8 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627353432"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="540362800"/>
+        <c:crossesAt val="-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -949,349 +1189,6 @@
         <a:defRPr>
           <a:latin typeface="Heuristica" panose="02020603050705020204" pitchFamily="18" charset="0"/>
         </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PV vergleich'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-2.23644405578252</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.6078773547670102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.9793106537515102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.3507439527360101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.7221772517205101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.0936105507049998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4650438496894997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.8364771486739997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.2079104476584899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PV vergleich'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.4132575024365499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4132575024365499</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4132575024365499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4311714650730298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4546233883142801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.48005178987016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5069305948327401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.53528337844382</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.2661433211921</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-190D-42A4-B93F-862BDADAFC54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="540362800"/>
-        <c:axId val="540363128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="540362800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="540363128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="540363128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="540362800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -1384,46 +1281,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1941,522 +1798,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2977,15 +2318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>441324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>60324</xdr:rowOff>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>469899</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3005,42 +2346,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>301624</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>755649</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886A5A6F-F6E9-470C-B884-9DA9A443F570}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3387,37 +2692,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B812D430-B57D-4AE6-8A29-767A4664C45B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="2" max="3" width="15.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>20.7950131516337</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>14.4372851107962</v>
       </c>
     </row>
@@ -3425,10 +2730,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>20.650150817336399</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>14.4372851107962</v>
       </c>
     </row>
@@ -3436,10 +2741,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>20.505288483039202</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>14.4372851107962</v>
       </c>
     </row>
@@ -3447,10 +2752,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>20.360426148742</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>14.4372851107962</v>
       </c>
     </row>
@@ -3458,10 +2763,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>20.215563814444799</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>14.45173387152</v>
       </c>
     </row>
@@ -3469,10 +2774,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>20.070701480147601</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>14.4718218661748</v>
       </c>
     </row>
@@ -3480,10 +2785,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>19.9258391458504</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>14.4921183417585</v>
       </c>
     </row>
@@ -3491,39 +2796,119 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>19.780976811553199</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>14.5130747341302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
         <v>19.636114477256001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>26.043228614947701</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
         <f>(B3-B10)/B10*100</f>
         <v>5.1641394801142066</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
+        <v>20.7950131516337</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14.4372851107962</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
+        <v>20.650150817336399</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14.4372851107962</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="7">
+        <v>20.505288483039202</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14.4372851107962</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="7">
+        <v>20.360426148742</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14.4372851107962</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="7">
+        <v>20.215563814444799</v>
+      </c>
+      <c r="C21" s="7">
+        <v>14.45173387152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="8">
+        <v>20.070701480147601</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14.4718218661748</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="7">
+        <v>19.9258391458504</v>
+      </c>
+      <c r="C23" s="7">
+        <v>14.4921183417585</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="7">
+        <v>19.780976811553199</v>
+      </c>
+      <c r="C24" s="7">
+        <v>14.5130747341302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="7">
+        <v>19.636114477256001</v>
+      </c>
+      <c r="C25" s="7">
+        <v>26.043228614947701</v>
       </c>
     </row>
   </sheetData>
@@ -3538,25 +2923,25 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>-2.23644405578252</v>
